--- a/Product Manufacturing Information/Product Manufacturing Information - UAS-X1V1.xlsx
+++ b/Product Manufacturing Information/Product Manufacturing Information - UAS-X1V1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Industrial Design Engineering\Unmanned System\UAS\UAV Xplore\UAV-X1V1\Product Manufacturing Information\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Industrial Design Engineering\Unmanned System\UAS\UAV Xplore\UAV-X1V1\Release\UAS-Xplore\Product Manufacturing Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="118">
   <si>
     <t>M3x40 Countersunk</t>
   </si>
@@ -342,6 +342,42 @@
   </si>
   <si>
     <t>Structural</t>
+  </si>
+  <si>
+    <t>Matek F405</t>
+  </si>
+  <si>
+    <t>ESC 20A</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>VTX</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>Servo SG90</t>
+  </si>
+  <si>
+    <t>Battery Lipo 2200</t>
+  </si>
+  <si>
+    <t>Propeller Tree Leaf</t>
+  </si>
+  <si>
+    <t>TBS Tracer Receiver</t>
+  </si>
+  <si>
+    <t>VTX Antenna</t>
+  </si>
+  <si>
+    <t>Antenna - VTX Cable Hub</t>
   </si>
 </sst>
 </file>
@@ -468,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -508,9 +544,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -798,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -897,7 +930,9 @@
       <c r="B6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="D6" s="9"/>
       <c r="E6" s="12"/>
       <c r="F6" s="8"/>
@@ -911,7 +946,9 @@
         <v>29</v>
       </c>
       <c r="B7" s="16"/>
-      <c r="C7" s="9"/>
+      <c r="C7" s="9" t="s">
+        <v>107</v>
+      </c>
       <c r="D7" s="9"/>
       <c r="E7" s="12"/>
       <c r="F7" s="8"/>
@@ -925,7 +962,9 @@
         <v>30</v>
       </c>
       <c r="B8" s="16"/>
-      <c r="C8" s="9"/>
+      <c r="C8" s="9" t="s">
+        <v>115</v>
+      </c>
       <c r="D8" s="9"/>
       <c r="E8" s="12"/>
       <c r="F8" s="8"/>
@@ -939,7 +978,9 @@
         <v>31</v>
       </c>
       <c r="B9" s="16"/>
-      <c r="C9" s="9"/>
+      <c r="C9" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D9" s="9"/>
       <c r="E9" s="12"/>
       <c r="F9" s="8"/>
@@ -953,7 +994,9 @@
         <v>32</v>
       </c>
       <c r="B10" s="16"/>
-      <c r="C10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>109</v>
+      </c>
       <c r="D10" s="9"/>
       <c r="E10" s="12"/>
       <c r="F10" s="8"/>
@@ -967,7 +1010,9 @@
         <v>33</v>
       </c>
       <c r="B11" s="16"/>
-      <c r="C11" s="9"/>
+      <c r="C11" s="9" t="s">
+        <v>116</v>
+      </c>
       <c r="D11" s="9"/>
       <c r="E11" s="12"/>
       <c r="F11" s="8"/>
@@ -981,7 +1026,9 @@
         <v>34</v>
       </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="D12" s="9"/>
       <c r="E12" s="12"/>
       <c r="F12" s="8"/>
@@ -995,7 +1042,9 @@
         <v>35</v>
       </c>
       <c r="B13" s="16"/>
-      <c r="C13" s="9"/>
+      <c r="C13" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="D13" s="9"/>
       <c r="E13" s="12"/>
       <c r="F13" s="8"/>
@@ -1009,7 +1058,9 @@
         <v>36</v>
       </c>
       <c r="B14" s="16"/>
-      <c r="C14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="D14" s="9"/>
       <c r="E14" s="12"/>
       <c r="F14" s="8"/>
@@ -1023,7 +1074,9 @@
         <v>37</v>
       </c>
       <c r="B15" s="16"/>
-      <c r="C15" s="9"/>
+      <c r="C15" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="D15" s="9"/>
       <c r="E15" s="12"/>
       <c r="F15" s="8"/>
@@ -1037,7 +1090,9 @@
         <v>38</v>
       </c>
       <c r="B16" s="16"/>
-      <c r="C16" s="9"/>
+      <c r="C16" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="D16" s="9"/>
       <c r="E16" s="12"/>
       <c r="F16" s="8"/>
@@ -1710,7 +1765,7 @@
       <c r="A58" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B58" s="17"/>
+      <c r="B58" s="16"/>
       <c r="C58" s="9" t="s">
         <v>7</v>
       </c>
@@ -1728,10 +1783,14 @@
       <c r="A59" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B59" s="18"/>
-      <c r="C59" s="9"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="D59" s="9"/>
-      <c r="E59" s="12"/>
+      <c r="E59" s="12">
+        <v>2</v>
+      </c>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
@@ -1794,7 +1853,7 @@
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="B60:B62"/>
     <mergeCell ref="B6:B26"/>
-    <mergeCell ref="B27:B58"/>
+    <mergeCell ref="B27:B59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Product Manufacturing Information/Product Manufacturing Information - UAS-X1V1.xlsx
+++ b/Product Manufacturing Information/Product Manufacturing Information - UAS-X1V1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>M3x40 Countersunk</t>
   </si>
@@ -149,24 +149,6 @@
     <t>EL013</t>
   </si>
   <si>
-    <t>EL014</t>
-  </si>
-  <si>
-    <t>EL015</t>
-  </si>
-  <si>
-    <t>EL016</t>
-  </si>
-  <si>
-    <t>EL017</t>
-  </si>
-  <si>
-    <t>EL018</t>
-  </si>
-  <si>
-    <t>EL019</t>
-  </si>
-  <si>
     <t>ME001</t>
   </si>
   <si>
@@ -188,12 +170,6 @@
     <t>Other Oomponent</t>
   </si>
   <si>
-    <t>EL020</t>
-  </si>
-  <si>
-    <t>EL021</t>
-  </si>
-  <si>
     <t>ME004</t>
   </si>
   <si>
@@ -224,12 +200,6 @@
     <t>QUANTITY</t>
   </si>
   <si>
-    <t>Unmanned Ground Vehicle - UAS-X1V1</t>
-  </si>
-  <si>
-    <t>Aluminium Pipe Diam15</t>
-  </si>
-  <si>
     <t>Fuselage</t>
   </si>
   <si>
@@ -378,6 +348,18 @@
   </si>
   <si>
     <t>Antenna - VTX Cable Hub</t>
+  </si>
+  <si>
+    <t>ME033</t>
+  </si>
+  <si>
+    <t>ME034</t>
+  </si>
+  <si>
+    <t>Aluminium Pipe Diameter 15</t>
+  </si>
+  <si>
+    <t>UAS Xplore (UAS-X1V1)</t>
   </si>
 </sst>
 </file>
@@ -829,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P62"/>
+  <dimension ref="A2:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -866,7 +848,7 @@
     </row>
     <row r="3" spans="1:16" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -900,7 +882,7 @@
         <v>27</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>21</v>
@@ -931,7 +913,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="12"/>
@@ -947,7 +929,7 @@
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="9" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="12"/>
@@ -963,7 +945,7 @@
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="9" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="12"/>
@@ -979,7 +961,7 @@
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="12"/>
@@ -995,7 +977,7 @@
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="9" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="12"/>
@@ -1011,7 +993,7 @@
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="9" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="12"/>
@@ -1027,7 +1009,7 @@
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="9" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="12"/>
@@ -1043,7 +1025,7 @@
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="9" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="12"/>
@@ -1059,7 +1041,7 @@
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="9" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="12"/>
@@ -1075,7 +1057,7 @@
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="9" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="12"/>
@@ -1091,7 +1073,7 @@
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="12"/>
@@ -1133,8 +1115,12 @@
       <c r="A19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="9"/>
+      <c r="B19" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="D19" s="9"/>
       <c r="E19" s="12"/>
       <c r="F19" s="8"/>
@@ -1148,7 +1134,9 @@
         <v>42</v>
       </c>
       <c r="B20" s="16"/>
-      <c r="C20" s="9"/>
+      <c r="C20" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="D20" s="9"/>
       <c r="E20" s="12"/>
       <c r="F20" s="8"/>
@@ -1162,7 +1150,9 @@
         <v>43</v>
       </c>
       <c r="B21" s="16"/>
-      <c r="C21" s="9"/>
+      <c r="C21" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="D21" s="9"/>
       <c r="E21" s="12"/>
       <c r="F21" s="8"/>
@@ -1173,10 +1163,12 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B22" s="16"/>
-      <c r="C22" s="9"/>
+      <c r="C22" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="D22" s="9"/>
       <c r="E22" s="12"/>
       <c r="F22" s="8"/>
@@ -1187,10 +1179,12 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B23" s="16"/>
-      <c r="C23" s="9"/>
+      <c r="C23" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="D23" s="9"/>
       <c r="E23" s="12"/>
       <c r="F23" s="8"/>
@@ -1201,10 +1195,12 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B24" s="16"/>
-      <c r="C24" s="9"/>
+      <c r="C24" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="D24" s="9"/>
       <c r="E24" s="12"/>
       <c r="F24" s="8"/>
@@ -1215,10 +1211,12 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B25" s="16"/>
-      <c r="C25" s="9"/>
+      <c r="C25" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="D25" s="9"/>
       <c r="E25" s="12"/>
       <c r="F25" s="8"/>
@@ -1229,10 +1227,12 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B26" s="16"/>
-      <c r="C26" s="9"/>
+      <c r="C26" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="D26" s="9"/>
       <c r="E26" s="12"/>
       <c r="F26" s="8"/>
@@ -1243,13 +1243,11 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>105</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B27" s="16"/>
       <c r="C27" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="12"/>
@@ -1261,11 +1259,11 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="12"/>
@@ -1277,11 +1275,11 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="12"/>
@@ -1297,7 +1295,7 @@
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="12"/>
@@ -1309,11 +1307,11 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="12"/>
@@ -1325,11 +1323,11 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="12"/>
@@ -1341,11 +1339,11 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="12"/>
@@ -1357,11 +1355,11 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="12"/>
@@ -1373,11 +1371,11 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B35" s="16"/>
       <c r="C35" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="12"/>
@@ -1389,11 +1387,11 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="12"/>
@@ -1405,14 +1403,16 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="9" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="D37" s="9"/>
-      <c r="E37" s="12"/>
+      <c r="E37" s="12">
+        <v>4</v>
+      </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -1421,14 +1421,16 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="9" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="D38" s="9"/>
-      <c r="E38" s="12"/>
+      <c r="E38" s="12">
+        <v>4</v>
+      </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -1437,14 +1439,16 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="9" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D39" s="9"/>
-      <c r="E39" s="12"/>
+      <c r="E39" s="12">
+        <v>2</v>
+      </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
@@ -1453,14 +1457,16 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B40" s="16"/>
       <c r="C40" s="9" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="D40" s="9"/>
-      <c r="E40" s="12"/>
+      <c r="E40" s="12">
+        <v>32</v>
+      </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
@@ -1469,14 +1475,16 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B41" s="16"/>
       <c r="C41" s="9" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="D41" s="9"/>
-      <c r="E41" s="12"/>
+      <c r="E41" s="12">
+        <v>4</v>
+      </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -1485,14 +1493,16 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B42" s="16"/>
       <c r="C42" s="9" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="D42" s="9"/>
-      <c r="E42" s="12"/>
+      <c r="E42" s="12">
+        <v>4</v>
+      </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
@@ -1501,11 +1511,11 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B43" s="16"/>
       <c r="C43" s="9" t="s">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="12"/>
@@ -1517,11 +1527,11 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B44" s="16"/>
       <c r="C44" s="9" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="12"/>
@@ -1533,15 +1543,15 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="9" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -1551,11 +1561,11 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B46" s="16"/>
       <c r="C46" s="9" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="12">
@@ -1569,15 +1579,15 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B47" s="16"/>
       <c r="C47" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -1587,15 +1597,15 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="12">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -1605,15 +1615,15 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B49" s="16"/>
       <c r="C49" s="9" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="12">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
@@ -1623,11 +1633,11 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B50" s="16"/>
       <c r="C50" s="9" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="12">
@@ -1641,14 +1651,16 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B51" s="16"/>
       <c r="C51" s="9" t="s">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="D51" s="9"/>
-      <c r="E51" s="12"/>
+      <c r="E51" s="12">
+        <v>2</v>
+      </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
@@ -1657,12 +1669,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="9" t="s">
-        <v>2</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B52" s="17"/>
+      <c r="C52" s="9"/>
       <c r="D52" s="9"/>
       <c r="E52" s="12"/>
       <c r="F52" s="8"/>
@@ -1673,16 +1683,16 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B53" s="16"/>
+        <v>44</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="C53" s="9" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D53" s="9"/>
-      <c r="E53" s="12">
-        <v>1</v>
-      </c>
+      <c r="E53" s="12"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
@@ -1691,16 +1701,14 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B54" s="16"/>
+        <v>45</v>
+      </c>
+      <c r="B54" s="14"/>
       <c r="C54" s="9" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D54" s="9"/>
-      <c r="E54" s="12">
-        <v>4</v>
-      </c>
+      <c r="E54" s="12"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
@@ -1709,151 +1717,27 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B55" s="16"/>
+        <v>46</v>
+      </c>
+      <c r="B55" s="14"/>
       <c r="C55" s="9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D55" s="9"/>
-      <c r="E55" s="12">
-        <v>4</v>
-      </c>
+      <c r="E55" s="12"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="12">
-        <v>1</v>
-      </c>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B57" s="16"/>
-      <c r="C57" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="12">
-        <v>12</v>
-      </c>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B58" s="16"/>
-      <c r="C58" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="9"/>
-      <c r="E58" s="12">
-        <v>4</v>
-      </c>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="12">
-        <v>2</v>
-      </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="9"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B6:B26"/>
-    <mergeCell ref="B27:B59"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B6:B18"/>
+    <mergeCell ref="B19:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Product Manufacturing Information/Product Manufacturing Information - UAS-X1V1.xlsx
+++ b/Product Manufacturing Information/Product Manufacturing Information - UAS-X1V1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>M3x40 Countersunk</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t>UAS Xplore (UAS-X1V1)</t>
+  </si>
+  <si>
+    <t>Motor - ESC Extended cable</t>
   </si>
 </sst>
 </file>
@@ -813,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1088,7 +1091,9 @@
         <v>39</v>
       </c>
       <c r="B17" s="16"/>
-      <c r="C17" s="9"/>
+      <c r="C17" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="D17" s="9"/>
       <c r="E17" s="12"/>
       <c r="F17" s="8"/>

--- a/Product Manufacturing Information/Product Manufacturing Information - UAS-X1V1.xlsx
+++ b/Product Manufacturing Information/Product Manufacturing Information - UAS-X1V1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>M3x40 Countersunk</t>
   </si>
@@ -89,12 +89,6 @@
     <t>DOMENSION (MM)</t>
   </si>
   <si>
-    <t>PRICE @UNIT (Rp.)</t>
-  </si>
-  <si>
-    <t>SUBTOTAL PRICE (Rp.)</t>
-  </si>
-  <si>
     <t>M1.5x5 Hex</t>
   </si>
   <si>
@@ -167,9 +161,6 @@
     <t>OT003</t>
   </si>
   <si>
-    <t>Other Oomponent</t>
-  </si>
-  <si>
     <t>ME004</t>
   </si>
   <si>
@@ -197,9 +188,6 @@
     <t>ME012</t>
   </si>
   <si>
-    <t>QUANTITY</t>
-  </si>
-  <si>
     <t>Fuselage</t>
   </si>
   <si>
@@ -363,6 +351,12 @@
   </si>
   <si>
     <t>Motor - ESC Extended cable</t>
+  </si>
+  <si>
+    <t>QUANTITY (PCS)</t>
+  </si>
+  <si>
+    <t>Other Component</t>
   </si>
 </sst>
 </file>
@@ -489,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -519,7 +513,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -533,6 +527,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -814,249 +814,232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P55"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" style="4" customWidth="1"/>
     <col min="3" max="3" width="34.88671875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="17" style="11" customWidth="1"/>
-    <col min="6" max="6" width="25.5546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="27.109375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="24.109375" style="5" customWidth="1"/>
-    <col min="11" max="15" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="28.88671875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="25.21875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="26.77734375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="45.21875" style="5" customWidth="1"/>
+    <col min="9" max="13" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="1" spans="1:14" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="1:16" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:14" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="18"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>8</v>
-      </c>
+      <c r="B6" s="16"/>
       <c r="C6" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="12"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>29</v>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="12"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>30</v>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="9" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="12"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>31</v>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="12"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>32</v>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="12"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>33</v>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="9" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="12"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>34</v>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="12"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>35</v>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="12"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>36</v>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="12"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>37</v>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="9" t="s">
@@ -1067,352 +1050,310 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>38</v>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="12"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>39</v>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="B17" s="16"/>
-      <c r="C17" s="9" t="s">
-        <v>112</v>
-      </c>
+      <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="12"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="D18" s="9"/>
       <c r="E18" s="12"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>95</v>
-      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="16"/>
       <c r="C19" s="9" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="12"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>42</v>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="12"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>43</v>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="12"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>48</v>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="12"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>49</v>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="12"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>50</v>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="12"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>51</v>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="12"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>52</v>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="12"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>53</v>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="12"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>54</v>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="12"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>55</v>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="12"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>56</v>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="12"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>75</v>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="12"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>76</v>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="12"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>77</v>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="12"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>78</v>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="12"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
-        <v>79</v>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="B35" s="16"/>
       <c r="C35" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="12"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
-        <v>80</v>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="9" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="D36" s="9"/>
-      <c r="E36" s="12"/>
+      <c r="E36" s="12">
+        <v>4</v>
+      </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
-        <v>81</v>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="9" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="12">
@@ -1421,70 +1362,62 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
-        <v>82</v>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
-        <v>83</v>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="12">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
-        <v>84</v>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="B40" s="16"/>
       <c r="C40" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="12">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
-        <v>85</v>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="B41" s="16"/>
       <c r="C41" s="9" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="12">
@@ -1493,84 +1426,74 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
-        <v>86</v>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="B42" s="16"/>
       <c r="C42" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" s="9"/>
-      <c r="E42" s="12">
-        <v>4</v>
-      </c>
+      <c r="E42" s="12"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
-        <v>87</v>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="B43" s="16"/>
       <c r="C43" s="9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="12"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
-        <v>88</v>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="B44" s="16"/>
       <c r="C44" s="9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" s="9"/>
-      <c r="E44" s="12"/>
+      <c r="E44" s="12">
+        <v>1</v>
+      </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
-        <v>89</v>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
-        <v>90</v>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="B46" s="16"/>
       <c r="C46" s="9" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="12">
@@ -1579,170 +1502,134 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
-        <v>91</v>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="B47" s="16"/>
       <c r="C47" s="9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
-        <v>92</v>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="12">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
-        <v>93</v>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="B49" s="16"/>
       <c r="C49" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="12">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
-        <v>94</v>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="B50" s="16"/>
       <c r="C50" s="9" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B51" s="16"/>
-      <c r="C51" s="9" t="s">
-        <v>104</v>
-      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="17"/>
+      <c r="C51" s="9"/>
       <c r="D51" s="9"/>
-      <c r="E51" s="12">
-        <v>2</v>
-      </c>
+      <c r="E51" s="12"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="9"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="D52" s="9"/>
       <c r="E52" s="12"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>47</v>
-      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="14"/>
       <c r="C53" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="12"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
-        <v>45</v>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="B54" s="14"/>
       <c r="C54" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="12"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B6:B18"/>
-    <mergeCell ref="B19:B52"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B5:B17"/>
+    <mergeCell ref="B18:B51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Product Manufacturing Information/Product Manufacturing Information - UAS-X1V1.xlsx
+++ b/Product Manufacturing Information/Product Manufacturing Information - UAS-X1V1.xlsx
@@ -477,6 +477,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -484,12 +490,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -774,8 +774,8 @@
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -787,7 +787,7 @@
     <col min="5" max="5" width="25.21875" style="10" customWidth="1"/>
     <col min="6" max="6" width="29.6640625" style="5" customWidth="1"/>
     <col min="7" max="7" width="26.77734375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="45.21875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="45.21875" style="14" customWidth="1"/>
     <col min="9" max="13" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -826,7 +826,7 @@
       <c r="A2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -836,13 +836,13 @@
       <c r="E2" s="11"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="16"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="8" t="s">
         <v>91</v>
       </c>
@@ -850,13 +850,13 @@
       <c r="E3" s="11"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="16"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="8" t="s">
         <v>99</v>
       </c>
@@ -864,13 +864,13 @@
       <c r="E4" s="11"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="16"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="8" t="s">
         <v>92</v>
       </c>
@@ -878,13 +878,13 @@
       <c r="E5" s="11"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="16"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="8" t="s">
         <v>93</v>
       </c>
@@ -892,13 +892,13 @@
       <c r="E6" s="11"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="16"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="8" t="s">
         <v>100</v>
       </c>
@@ -906,13 +906,13 @@
       <c r="E7" s="11"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="16"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="8" t="s">
         <v>94</v>
       </c>
@@ -920,13 +920,13 @@
       <c r="E8" s="11"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="16"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="8" t="s">
         <v>95</v>
       </c>
@@ -934,13 +934,13 @@
       <c r="E9" s="11"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="16"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="8" t="s">
         <v>96</v>
       </c>
@@ -948,13 +948,13 @@
       <c r="E10" s="11"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="16"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="8" t="s">
         <v>97</v>
       </c>
@@ -962,13 +962,13 @@
       <c r="E11" s="11"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="16"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="8" t="s">
         <v>101</v>
       </c>
@@ -976,13 +976,13 @@
       <c r="E12" s="11"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="16"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="8" t="s">
         <v>104</v>
       </c>
@@ -990,13 +990,13 @@
       <c r="E13" s="11"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="16"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="16" t="s">
         <v>89</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -1006,13 +1006,15 @@
       <c r="E14" s="11"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="16"/>
+      <c r="H14" s="13">
+        <v>72</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="8" t="s">
         <v>52</v>
       </c>
@@ -1020,7 +1022,7 @@
       <c r="E15" s="11"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="16">
+      <c r="H15" s="13">
         <v>160</v>
       </c>
     </row>
@@ -1028,7 +1030,7 @@
       <c r="A16" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="8" t="s">
         <v>53</v>
       </c>
@@ -1036,7 +1038,7 @@
       <c r="E16" s="11"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="16">
+      <c r="H16" s="13">
         <v>50</v>
       </c>
     </row>
@@ -1044,7 +1046,7 @@
       <c r="A17" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="8" t="s">
         <v>54</v>
       </c>
@@ -1052,13 +1054,13 @@
       <c r="E17" s="11"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="16"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="8" t="s">
         <v>55</v>
       </c>
@@ -1066,13 +1068,13 @@
       <c r="E18" s="11"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="16"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="15"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="8" t="s">
         <v>56</v>
       </c>
@@ -1080,13 +1082,13 @@
       <c r="E19" s="11"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="16"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="8" t="s">
         <v>57</v>
       </c>
@@ -1094,13 +1096,13 @@
       <c r="E20" s="11"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="16"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="15"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="8" t="s">
         <v>58</v>
       </c>
@@ -1108,13 +1110,13 @@
       <c r="E21" s="11"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="16"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="15"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="8" t="s">
         <v>59</v>
       </c>
@@ -1122,13 +1124,13 @@
       <c r="E22" s="11"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="16"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="15"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="8" t="s">
         <v>60</v>
       </c>
@@ -1136,13 +1138,13 @@
       <c r="E23" s="11"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="16"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="15"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="8" t="s">
         <v>61</v>
       </c>
@@ -1150,13 +1152,13 @@
       <c r="E24" s="11"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="16"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="15"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="8" t="s">
         <v>62</v>
       </c>
@@ -1164,13 +1166,13 @@
       <c r="E25" s="11"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="16"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="15"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="8" t="s">
         <v>63</v>
       </c>
@@ -1178,13 +1180,13 @@
       <c r="E26" s="11"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="16"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="15"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="8" t="s">
         <v>64</v>
       </c>
@@ -1192,13 +1194,13 @@
       <c r="E27" s="11"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="16"/>
+      <c r="H27" s="13"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="15"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="8" t="s">
         <v>65</v>
       </c>
@@ -1206,13 +1208,13 @@
       <c r="E28" s="11"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="16"/>
+      <c r="H28" s="13"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="15"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="8" t="s">
         <v>66</v>
       </c>
@@ -1220,13 +1222,13 @@
       <c r="E29" s="11"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="16"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="15"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="8" t="s">
         <v>67</v>
       </c>
@@ -1234,13 +1236,13 @@
       <c r="E30" s="11"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="16"/>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="15"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="8" t="s">
         <v>68</v>
       </c>
@@ -1248,13 +1250,13 @@
       <c r="E31" s="11"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="16"/>
+      <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="15"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="8" t="s">
         <v>20</v>
       </c>
@@ -1264,13 +1266,13 @@
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
-      <c r="H32" s="16"/>
+      <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="15"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="8" t="s">
         <v>11</v>
       </c>
@@ -1280,13 +1282,13 @@
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="16"/>
+      <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="15"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="8" t="s">
         <v>12</v>
       </c>
@@ -1296,13 +1298,13 @@
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="16"/>
+      <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="15"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="8" t="s">
         <v>9</v>
       </c>
@@ -1312,13 +1314,13 @@
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="16"/>
+      <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="15"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="8" t="s">
         <v>13</v>
       </c>
@@ -1328,13 +1330,13 @@
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="16"/>
+      <c r="H36" s="13"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="15"/>
+      <c r="B37" s="17"/>
       <c r="C37" s="8" t="s">
         <v>1</v>
       </c>
@@ -1344,13 +1346,13 @@
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="16"/>
+      <c r="H37" s="13"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="15"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="8" t="s">
         <v>0</v>
       </c>
@@ -1358,13 +1360,13 @@
       <c r="E38" s="11"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
-      <c r="H38" s="16"/>
+      <c r="H38" s="13"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="15"/>
+      <c r="B39" s="17"/>
       <c r="C39" s="8" t="s">
         <v>2</v>
       </c>
@@ -1372,13 +1374,13 @@
       <c r="E39" s="11"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
-      <c r="H39" s="16"/>
+      <c r="H39" s="13"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="15"/>
+      <c r="B40" s="17"/>
       <c r="C40" s="8" t="s">
         <v>3</v>
       </c>
@@ -1388,13 +1390,13 @@
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
-      <c r="H40" s="16"/>
+      <c r="H40" s="13"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="15"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="8" t="s">
         <v>4</v>
       </c>
@@ -1404,13 +1406,13 @@
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
-      <c r="H41" s="16"/>
+      <c r="H41" s="13"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="15"/>
+      <c r="B42" s="17"/>
       <c r="C42" s="8" t="s">
         <v>10</v>
       </c>
@@ -1420,13 +1422,13 @@
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="16"/>
+      <c r="H42" s="13"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="15"/>
+      <c r="B43" s="17"/>
       <c r="C43" s="8" t="s">
         <v>5</v>
       </c>
@@ -1436,13 +1438,13 @@
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="16"/>
+      <c r="H43" s="13"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="15"/>
+      <c r="B44" s="17"/>
       <c r="C44" s="8" t="s">
         <v>6</v>
       </c>
@@ -1452,13 +1454,13 @@
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
-      <c r="H44" s="16"/>
+      <c r="H44" s="13"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="15"/>
+      <c r="B45" s="17"/>
       <c r="C45" s="8" t="s">
         <v>7</v>
       </c>
@@ -1468,13 +1470,13 @@
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
-      <c r="H45" s="16"/>
+      <c r="H45" s="13"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="15"/>
+      <c r="B46" s="17"/>
       <c r="C46" s="8" t="s">
         <v>98</v>
       </c>
@@ -1484,13 +1486,13 @@
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
-      <c r="H46" s="16"/>
+      <c r="H46" s="13"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="15" t="s">
         <v>106</v>
       </c>
       <c r="C47" s="8" t="s">
@@ -1500,13 +1502,13 @@
       <c r="E47" s="11"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
-      <c r="H47" s="16"/>
+      <c r="H47" s="13"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="13"/>
+      <c r="B48" s="15"/>
       <c r="C48" s="8" t="s">
         <v>15</v>
       </c>
@@ -1514,13 +1516,13 @@
       <c r="E48" s="11"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
-      <c r="H48" s="16"/>
+      <c r="H48" s="13"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="13"/>
+      <c r="B49" s="15"/>
       <c r="C49" s="8" t="s">
         <v>16</v>
       </c>
@@ -1528,7 +1530,7 @@
       <c r="E49" s="11"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
-      <c r="H49" s="16"/>
+      <c r="H49" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Product Manufacturing Information/Product Manufacturing Information - UAS-X1V1.xlsx
+++ b/Product Manufacturing Information/Product Manufacturing Information - UAS-X1V1.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -773,9 +774,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1541,4 +1542,21 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>